--- a/data/Ladybug Data.xlsx
+++ b/data/Ladybug Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pravanipradhan/Desktop/Project-Insect-Carnivore-main/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pravanipradhan/Desktop/Project-Insect-Carnivore-main/Ladybug-Data-Group-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F5C341-3E30-0141-AB4E-FFEC7CBF7EDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046FB119-0657-AF48-82F4-3CAA9D484CF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="26920" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2410,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I560"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A548" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A554" workbookViewId="0">
+      <selection activeCell="G548" sqref="G548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>8</v>
       </c>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>14</v>
       </c>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>14</v>
       </c>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>14</v>
       </c>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>14</v>
       </c>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>119</v>
       </c>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>14</v>
       </c>
@@ -4714,7 +4714,7 @@
       </c>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>72</v>
       </c>
@@ -4741,7 +4741,7 @@
       </c>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>14</v>
       </c>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>14</v>
       </c>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="I89" s="4"/>
     </row>
-    <row r="90" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>14</v>
       </c>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>14</v>
       </c>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="I91" s="4"/>
     </row>
-    <row r="92" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>14</v>
       </c>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="I92" s="4"/>
     </row>
-    <row r="93" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>14</v>
       </c>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>36</v>
       </c>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>36</v>
       </c>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="I122" s="4"/>
     </row>
-    <row r="123" spans="1:9" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>72</v>
       </c>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="I126" s="4"/>
     </row>
-    <row r="127" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>14</v>
       </c>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="I127" s="4"/>
     </row>
-    <row r="128" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
         <v>14</v>
       </c>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="I128" s="4"/>
     </row>
-    <row r="129" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>14</v>
       </c>
@@ -5902,7 +5902,7 @@
       </c>
       <c r="I129" s="4"/>
     </row>
-    <row r="130" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>14</v>
       </c>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I130" s="4"/>
     </row>
-    <row r="131" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>14</v>
       </c>
@@ -5956,7 +5956,7 @@
       </c>
       <c r="I131" s="4"/>
     </row>
-    <row r="132" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>52</v>
       </c>
@@ -5983,7 +5983,7 @@
       </c>
       <c r="I132" s="4"/>
     </row>
-    <row r="133" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>52</v>
       </c>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="I133" s="4"/>
     </row>
-    <row r="134" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>52</v>
       </c>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="I134" s="4"/>
     </row>
-    <row r="135" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>52</v>
       </c>
@@ -6064,7 +6064,7 @@
       </c>
       <c r="I135" s="4"/>
     </row>
-    <row r="136" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>52</v>
       </c>
@@ -6091,7 +6091,7 @@
       </c>
       <c r="I136" s="4"/>
     </row>
-    <row r="137" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>116</v>
       </c>
@@ -6118,7 +6118,7 @@
       </c>
       <c r="I137" s="4"/>
     </row>
-    <row r="138" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>14</v>
       </c>
@@ -6145,7 +6145,7 @@
       </c>
       <c r="I138" s="4"/>
     </row>
-    <row r="139" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>52</v>
       </c>
@@ -6172,7 +6172,7 @@
       </c>
       <c r="I139" s="4"/>
     </row>
-    <row r="140" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>36</v>
       </c>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="I140" s="4"/>
     </row>
-    <row r="141" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>36</v>
       </c>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="I141" s="4"/>
     </row>
-    <row r="142" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>36</v>
       </c>
@@ -6415,7 +6415,7 @@
       </c>
       <c r="I148" s="4"/>
     </row>
-    <row r="149" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>14</v>
       </c>
@@ -6442,7 +6442,7 @@
       </c>
       <c r="I149" s="4"/>
     </row>
-    <row r="150" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>14</v>
       </c>
@@ -6469,7 +6469,7 @@
       </c>
       <c r="I150" s="4"/>
     </row>
-    <row r="151" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>14</v>
       </c>
@@ -6496,7 +6496,7 @@
       </c>
       <c r="I151" s="4"/>
     </row>
-    <row r="152" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>14</v>
       </c>
@@ -6523,7 +6523,7 @@
       </c>
       <c r="I152" s="4"/>
     </row>
-    <row r="153" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>14</v>
       </c>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="I153" s="4"/>
     </row>
-    <row r="154" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>211</v>
       </c>
@@ -6766,7 +6766,7 @@
       </c>
       <c r="I161" s="4"/>
     </row>
-    <row r="162" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>72</v>
       </c>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I162" s="4"/>
     </row>
-    <row r="163" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>14</v>
       </c>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="I164" s="4"/>
     </row>
-    <row r="165" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>8</v>
       </c>
@@ -6874,7 +6874,7 @@
       </c>
       <c r="I165" s="4"/>
     </row>
-    <row r="166" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>8</v>
       </c>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="I166" s="4"/>
     </row>
-    <row r="167" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>8</v>
       </c>
@@ -7063,7 +7063,7 @@
       </c>
       <c r="I172" s="4"/>
     </row>
-    <row r="173" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>8</v>
       </c>
@@ -7252,7 +7252,7 @@
       </c>
       <c r="I179" s="4"/>
     </row>
-    <row r="180" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>72</v>
       </c>
@@ -7279,7 +7279,7 @@
       </c>
       <c r="I180" s="4"/>
     </row>
-    <row r="181" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>72</v>
       </c>
@@ -7333,7 +7333,7 @@
       </c>
       <c r="I182" s="4"/>
     </row>
-    <row r="183" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>14</v>
       </c>
@@ -7360,7 +7360,7 @@
       </c>
       <c r="I183" s="4"/>
     </row>
-    <row r="184" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>142</v>
       </c>
@@ -7387,7 +7387,7 @@
       </c>
       <c r="I184" s="4"/>
     </row>
-    <row r="185" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>142</v>
       </c>
@@ -7468,7 +7468,7 @@
       </c>
       <c r="I187" s="4"/>
     </row>
-    <row r="188" spans="1:9" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>14</v>
       </c>
@@ -7495,7 +7495,7 @@
       </c>
       <c r="I188" s="4"/>
     </row>
-    <row r="189" spans="1:9" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>14</v>
       </c>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="I196" s="4"/>
     </row>
-    <row r="197" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>14</v>
       </c>
@@ -7738,7 +7738,7 @@
       </c>
       <c r="I197" s="4"/>
     </row>
-    <row r="198" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>14</v>
       </c>
@@ -7765,7 +7765,7 @@
       </c>
       <c r="I198" s="4"/>
     </row>
-    <row r="199" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>14</v>
       </c>
@@ -7792,7 +7792,7 @@
       </c>
       <c r="I199" s="4"/>
     </row>
-    <row r="200" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>14</v>
       </c>
@@ -7819,7 +7819,7 @@
       </c>
       <c r="I200" s="4"/>
     </row>
-    <row r="201" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>14</v>
       </c>
@@ -7846,7 +7846,7 @@
       </c>
       <c r="I201" s="4"/>
     </row>
-    <row r="202" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>14</v>
       </c>
@@ -7873,7 +7873,7 @@
       </c>
       <c r="I202" s="4"/>
     </row>
-    <row r="203" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>217</v>
       </c>
@@ -7954,7 +7954,7 @@
       </c>
       <c r="I205" s="4"/>
     </row>
-    <row r="206" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>36</v>
       </c>
@@ -7981,7 +7981,7 @@
       </c>
       <c r="I206" s="4"/>
     </row>
-    <row r="207" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>36</v>
       </c>
@@ -8035,7 +8035,7 @@
       </c>
       <c r="I208" s="4"/>
     </row>
-    <row r="209" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>8</v>
       </c>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I210" s="4"/>
     </row>
-    <row r="211" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>8</v>
       </c>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="I214" s="4"/>
     </row>
-    <row r="215" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>8</v>
       </c>
@@ -8224,7 +8224,7 @@
       </c>
       <c r="I215" s="4"/>
     </row>
-    <row r="216" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>8</v>
       </c>
@@ -8251,7 +8251,7 @@
       </c>
       <c r="I216" s="4"/>
     </row>
-    <row r="217" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>8</v>
       </c>
@@ -8278,7 +8278,7 @@
       </c>
       <c r="I217" s="4"/>
     </row>
-    <row r="218" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>119</v>
       </c>
@@ -8303,7 +8303,7 @@
       </c>
       <c r="I218" s="4"/>
     </row>
-    <row r="219" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>211</v>
       </c>
@@ -8600,7 +8600,7 @@
       </c>
       <c r="I229" s="4"/>
     </row>
-    <row r="230" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>30</v>
       </c>
@@ -8627,7 +8627,7 @@
       </c>
       <c r="I230" s="4"/>
     </row>
-    <row r="231" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>8</v>
       </c>
@@ -8654,7 +8654,7 @@
       </c>
       <c r="I231" s="4"/>
     </row>
-    <row r="232" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>8</v>
       </c>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="I232" s="4"/>
     </row>
-    <row r="233" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>8</v>
       </c>
@@ -8708,7 +8708,7 @@
       </c>
       <c r="I233" s="4"/>
     </row>
-    <row r="234" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>8</v>
       </c>
@@ -8735,7 +8735,7 @@
       </c>
       <c r="I234" s="4"/>
     </row>
-    <row r="235" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>8</v>
       </c>
@@ -8762,7 +8762,7 @@
       </c>
       <c r="I235" s="4"/>
     </row>
-    <row r="236" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>8</v>
       </c>
@@ -8789,7 +8789,7 @@
       </c>
       <c r="I236" s="4"/>
     </row>
-    <row r="237" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>8</v>
       </c>
@@ -8816,7 +8816,7 @@
       </c>
       <c r="I237" s="4"/>
     </row>
-    <row r="238" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>8</v>
       </c>
@@ -8843,7 +8843,7 @@
       </c>
       <c r="I238" s="4"/>
     </row>
-    <row r="239" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>8</v>
       </c>
@@ -8870,7 +8870,7 @@
       </c>
       <c r="I239" s="4"/>
     </row>
-    <row r="240" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>8</v>
       </c>
@@ -8897,7 +8897,7 @@
       </c>
       <c r="I240" s="4"/>
     </row>
-    <row r="241" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>8</v>
       </c>
@@ -8924,7 +8924,7 @@
       </c>
       <c r="I241" s="4"/>
     </row>
-    <row r="242" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>8</v>
       </c>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="I242" s="4"/>
     </row>
-    <row r="243" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>8</v>
       </c>
@@ -8978,7 +8978,7 @@
       </c>
       <c r="I243" s="4"/>
     </row>
-    <row r="244" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>8</v>
       </c>
@@ -9005,7 +9005,7 @@
       </c>
       <c r="I244" s="4"/>
     </row>
-    <row r="245" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>8</v>
       </c>
@@ -9032,7 +9032,7 @@
       </c>
       <c r="I245" s="4"/>
     </row>
-    <row r="246" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>8</v>
       </c>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="I246" s="4"/>
     </row>
-    <row r="247" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>8</v>
       </c>
@@ -9086,7 +9086,7 @@
       </c>
       <c r="I247" s="4"/>
     </row>
-    <row r="248" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>332</v>
       </c>
@@ -9113,7 +9113,7 @@
       </c>
       <c r="I248" s="4"/>
     </row>
-    <row r="249" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>332</v>
       </c>
@@ -9140,7 +9140,7 @@
       </c>
       <c r="I249" s="4"/>
     </row>
-    <row r="250" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>332</v>
       </c>
@@ -9167,7 +9167,7 @@
       </c>
       <c r="I250" s="4"/>
     </row>
-    <row r="251" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>332</v>
       </c>
@@ -9194,7 +9194,7 @@
       </c>
       <c r="I251" s="4"/>
     </row>
-    <row r="252" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>72</v>
       </c>
@@ -9518,7 +9518,7 @@
       </c>
       <c r="I263" s="4"/>
     </row>
-    <row r="264" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>109</v>
       </c>
@@ -9545,7 +9545,7 @@
       </c>
       <c r="I264" s="4"/>
     </row>
-    <row r="265" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>351</v>
       </c>
@@ -9572,7 +9572,7 @@
       </c>
       <c r="I265" s="4"/>
     </row>
-    <row r="266" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>14</v>
       </c>
@@ -9599,7 +9599,7 @@
       </c>
       <c r="I266" s="4"/>
     </row>
-    <row r="267" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>8</v>
       </c>
@@ -9649,7 +9649,7 @@
       </c>
       <c r="I268" s="4"/>
     </row>
-    <row r="269" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>14</v>
       </c>
@@ -9784,7 +9784,7 @@
       </c>
       <c r="I273" s="4"/>
     </row>
-    <row r="274" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
         <v>119</v>
       </c>
@@ -9809,7 +9809,7 @@
       </c>
       <c r="I274" s="4"/>
     </row>
-    <row r="275" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
         <v>119</v>
       </c>
@@ -9834,7 +9834,7 @@
       </c>
       <c r="I275" s="4"/>
     </row>
-    <row r="276" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>119</v>
       </c>
@@ -9859,7 +9859,7 @@
       </c>
       <c r="I276" s="4"/>
     </row>
-    <row r="277" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
         <v>119</v>
       </c>
@@ -9884,7 +9884,7 @@
       </c>
       <c r="I277" s="4"/>
     </row>
-    <row r="278" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>119</v>
       </c>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I278" s="4"/>
     </row>
-    <row r="279" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
         <v>119</v>
       </c>
@@ -9934,7 +9934,7 @@
       </c>
       <c r="I279" s="4"/>
     </row>
-    <row r="280" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>119</v>
       </c>
@@ -9959,7 +9959,7 @@
       </c>
       <c r="I280" s="4"/>
     </row>
-    <row r="281" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>119</v>
       </c>
@@ -9984,7 +9984,7 @@
       </c>
       <c r="I281" s="4"/>
     </row>
-    <row r="282" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
         <v>119</v>
       </c>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I282" s="4"/>
     </row>
-    <row r="283" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>14</v>
       </c>
@@ -10036,7 +10036,7 @@
       </c>
       <c r="I283" s="4"/>
     </row>
-    <row r="284" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>211</v>
       </c>
@@ -10144,7 +10144,7 @@
       </c>
       <c r="I287" s="4"/>
     </row>
-    <row r="288" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>119</v>
       </c>
@@ -10358,7 +10358,7 @@
       </c>
       <c r="I295" s="4"/>
     </row>
-    <row r="296" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>72</v>
       </c>
@@ -10385,7 +10385,7 @@
       </c>
       <c r="I296" s="4"/>
     </row>
-    <row r="297" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>14</v>
       </c>
@@ -10412,7 +10412,7 @@
       </c>
       <c r="I297" s="4"/>
     </row>
-    <row r="298" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
         <v>211</v>
       </c>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="I298" s="4"/>
     </row>
-    <row r="299" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
         <v>211</v>
       </c>
@@ -10466,7 +10466,7 @@
       </c>
       <c r="I299" s="4"/>
     </row>
-    <row r="300" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>8</v>
       </c>
@@ -10493,7 +10493,7 @@
       </c>
       <c r="I300" s="4"/>
     </row>
-    <row r="301" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
         <v>8</v>
       </c>
@@ -10520,7 +10520,7 @@
       </c>
       <c r="I301" s="4"/>
     </row>
-    <row r="302" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
         <v>142</v>
       </c>
@@ -10547,7 +10547,7 @@
       </c>
       <c r="I302" s="4"/>
     </row>
-    <row r="303" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
         <v>142</v>
       </c>
@@ -10574,7 +10574,7 @@
       </c>
       <c r="I303" s="4"/>
     </row>
-    <row r="304" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
         <v>142</v>
       </c>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="I304" s="4"/>
     </row>
-    <row r="305" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>142</v>
       </c>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="I305" s="4"/>
     </row>
-    <row r="306" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
         <v>142</v>
       </c>
@@ -10655,7 +10655,7 @@
       </c>
       <c r="I306" s="4"/>
     </row>
-    <row r="307" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>142</v>
       </c>
@@ -10682,7 +10682,7 @@
       </c>
       <c r="I307" s="4"/>
     </row>
-    <row r="308" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>142</v>
       </c>
@@ -10709,7 +10709,7 @@
       </c>
       <c r="I308" s="4"/>
     </row>
-    <row r="309" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
         <v>142</v>
       </c>
@@ -10736,7 +10736,7 @@
       </c>
       <c r="I309" s="4"/>
     </row>
-    <row r="310" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
         <v>119</v>
       </c>
@@ -10761,7 +10761,7 @@
       </c>
       <c r="I310" s="4"/>
     </row>
-    <row r="311" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
         <v>142</v>
       </c>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="I311" s="4"/>
     </row>
-    <row r="312" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
         <v>142</v>
       </c>
@@ -10815,7 +10815,7 @@
       </c>
       <c r="I312" s="4"/>
     </row>
-    <row r="313" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>142</v>
       </c>
@@ -10842,7 +10842,7 @@
       </c>
       <c r="I313" s="4"/>
     </row>
-    <row r="314" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
         <v>142</v>
       </c>
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I314" s="4"/>
     </row>
-    <row r="315" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
         <v>142</v>
       </c>
@@ -10896,7 +10896,7 @@
       </c>
       <c r="I315" s="4"/>
     </row>
-    <row r="316" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
         <v>142</v>
       </c>
@@ -10923,7 +10923,7 @@
       </c>
       <c r="I316" s="4"/>
     </row>
-    <row r="317" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
         <v>142</v>
       </c>
@@ -10950,7 +10950,7 @@
       </c>
       <c r="I317" s="4"/>
     </row>
-    <row r="318" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
         <v>109</v>
       </c>
@@ -10977,7 +10977,7 @@
       </c>
       <c r="I318" s="4"/>
     </row>
-    <row r="319" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
         <v>109</v>
       </c>
@@ -11326,7 +11326,7 @@
       </c>
       <c r="I331" s="4"/>
     </row>
-    <row r="332" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
         <v>14</v>
       </c>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I332" s="4"/>
     </row>
-    <row r="333" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
         <v>429</v>
       </c>
@@ -11380,7 +11380,7 @@
       </c>
       <c r="I333" s="4"/>
     </row>
-    <row r="334" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
         <v>429</v>
       </c>
@@ -11407,7 +11407,7 @@
       </c>
       <c r="I334" s="4"/>
     </row>
-    <row r="335" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
         <v>14</v>
       </c>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="I335" s="4"/>
     </row>
-    <row r="336" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
         <v>8</v>
       </c>
@@ -11461,7 +11461,7 @@
       </c>
       <c r="I336" s="4"/>
     </row>
-    <row r="337" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
         <v>211</v>
       </c>
@@ -11488,7 +11488,7 @@
       </c>
       <c r="I337" s="4"/>
     </row>
-    <row r="338" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
         <v>211</v>
       </c>
@@ -11567,7 +11567,7 @@
       </c>
       <c r="I340" s="4"/>
     </row>
-    <row r="341" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
         <v>211</v>
       </c>
@@ -11594,7 +11594,7 @@
       </c>
       <c r="I341" s="4"/>
     </row>
-    <row r="342" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
         <v>97</v>
       </c>
@@ -11621,7 +11621,7 @@
       </c>
       <c r="I342" s="4"/>
     </row>
-    <row r="343" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
         <v>109</v>
       </c>
@@ -11675,7 +11675,7 @@
       </c>
       <c r="I344" s="4"/>
     </row>
-    <row r="345" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
         <v>14</v>
       </c>
@@ -11702,7 +11702,7 @@
       </c>
       <c r="I345" s="4"/>
     </row>
-    <row r="346" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
         <v>8</v>
       </c>
@@ -11729,7 +11729,7 @@
       </c>
       <c r="I346" s="4"/>
     </row>
-    <row r="347" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
         <v>8</v>
       </c>
@@ -11756,7 +11756,7 @@
       </c>
       <c r="I347" s="4"/>
     </row>
-    <row r="348" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
         <v>8</v>
       </c>
@@ -11783,7 +11783,7 @@
       </c>
       <c r="I348" s="4"/>
     </row>
-    <row r="349" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
         <v>8</v>
       </c>
@@ -12161,7 +12161,7 @@
       </c>
       <c r="I362" s="4"/>
     </row>
-    <row r="363" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
         <v>211</v>
       </c>
@@ -12188,7 +12188,7 @@
       </c>
       <c r="I363" s="4"/>
     </row>
-    <row r="364" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
         <v>211</v>
       </c>
@@ -12215,7 +12215,7 @@
       </c>
       <c r="I364" s="4"/>
     </row>
-    <row r="365" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
         <v>211</v>
       </c>
@@ -12242,7 +12242,7 @@
       </c>
       <c r="I365" s="4"/>
     </row>
-    <row r="366" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
         <v>211</v>
       </c>
@@ -12269,7 +12269,7 @@
       </c>
       <c r="I366" s="4"/>
     </row>
-    <row r="367" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
         <v>211</v>
       </c>
@@ -12296,7 +12296,7 @@
       </c>
       <c r="I367" s="4"/>
     </row>
-    <row r="368" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
         <v>211</v>
       </c>
@@ -12323,7 +12323,7 @@
       </c>
       <c r="I368" s="4"/>
     </row>
-    <row r="369" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
         <v>211</v>
       </c>
@@ -12350,7 +12350,7 @@
       </c>
       <c r="I369" s="4"/>
     </row>
-    <row r="370" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
         <v>211</v>
       </c>
@@ -12377,7 +12377,7 @@
       </c>
       <c r="I370" s="4"/>
     </row>
-    <row r="371" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
         <v>211</v>
       </c>
@@ -12404,7 +12404,7 @@
       </c>
       <c r="I371" s="4"/>
     </row>
-    <row r="372" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
         <v>211</v>
       </c>
@@ -12431,7 +12431,7 @@
       </c>
       <c r="I372" s="4"/>
     </row>
-    <row r="373" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
         <v>211</v>
       </c>
@@ -12458,7 +12458,7 @@
       </c>
       <c r="I373" s="4"/>
     </row>
-    <row r="374" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
         <v>211</v>
       </c>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="I374" s="4"/>
     </row>
-    <row r="375" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
         <v>109</v>
       </c>
@@ -12512,7 +12512,7 @@
       </c>
       <c r="I375" s="4"/>
     </row>
-    <row r="376" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
         <v>211</v>
       </c>
@@ -12539,7 +12539,7 @@
       </c>
       <c r="I376" s="4"/>
     </row>
-    <row r="377" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
         <v>211</v>
       </c>
@@ -12566,7 +12566,7 @@
       </c>
       <c r="I377" s="4"/>
     </row>
-    <row r="378" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
         <v>211</v>
       </c>
@@ -12620,7 +12620,7 @@
       </c>
       <c r="I379" s="4"/>
     </row>
-    <row r="380" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
         <v>211</v>
       </c>
@@ -12647,7 +12647,7 @@
       </c>
       <c r="I380" s="4"/>
     </row>
-    <row r="381" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
         <v>211</v>
       </c>
@@ -12674,7 +12674,7 @@
       </c>
       <c r="I381" s="4"/>
     </row>
-    <row r="382" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
         <v>211</v>
       </c>
@@ -12728,7 +12728,7 @@
       </c>
       <c r="I383" s="4"/>
     </row>
-    <row r="384" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
         <v>211</v>
       </c>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="I384" s="4"/>
     </row>
-    <row r="385" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
         <v>211</v>
       </c>
@@ -12782,7 +12782,7 @@
       </c>
       <c r="I385" s="4"/>
     </row>
-    <row r="386" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
         <v>211</v>
       </c>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="I386" s="4"/>
     </row>
-    <row r="387" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
         <v>211</v>
       </c>
@@ -12836,7 +12836,7 @@
       </c>
       <c r="I387" s="4"/>
     </row>
-    <row r="388" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
         <v>211</v>
       </c>
@@ -12863,7 +12863,7 @@
       </c>
       <c r="I388" s="4"/>
     </row>
-    <row r="389" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
         <v>211</v>
       </c>
@@ -12890,7 +12890,7 @@
       </c>
       <c r="I389" s="4"/>
     </row>
-    <row r="390" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
         <v>211</v>
       </c>
@@ -12917,7 +12917,7 @@
       </c>
       <c r="I390" s="4"/>
     </row>
-    <row r="391" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
         <v>332</v>
       </c>
@@ -12944,7 +12944,7 @@
       </c>
       <c r="I391" s="4"/>
     </row>
-    <row r="392" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
         <v>332</v>
       </c>
@@ -13079,7 +13079,7 @@
       </c>
       <c r="I396" s="4"/>
     </row>
-    <row r="397" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
         <v>8</v>
       </c>
@@ -13106,7 +13106,7 @@
       </c>
       <c r="I397" s="4"/>
     </row>
-    <row r="398" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
         <v>8</v>
       </c>
@@ -13133,7 +13133,7 @@
       </c>
       <c r="I398" s="4"/>
     </row>
-    <row r="399" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
         <v>8</v>
       </c>
@@ -13160,7 +13160,7 @@
       </c>
       <c r="I399" s="4"/>
     </row>
-    <row r="400" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
         <v>8</v>
       </c>
@@ -13187,7 +13187,7 @@
       </c>
       <c r="I400" s="4"/>
     </row>
-    <row r="401" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
         <v>8</v>
       </c>
@@ -13214,7 +13214,7 @@
       </c>
       <c r="I401" s="4"/>
     </row>
-    <row r="402" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
         <v>8</v>
       </c>
@@ -13376,7 +13376,7 @@
       </c>
       <c r="I407" s="4"/>
     </row>
-    <row r="408" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
         <v>211</v>
       </c>
@@ -13403,7 +13403,7 @@
       </c>
       <c r="I408" s="4"/>
     </row>
-    <row r="409" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
         <v>211</v>
       </c>
@@ -13430,7 +13430,7 @@
       </c>
       <c r="I409" s="4"/>
     </row>
-    <row r="410" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
         <v>109</v>
       </c>
@@ -13457,7 +13457,7 @@
       </c>
       <c r="I410" s="4"/>
     </row>
-    <row r="411" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
         <v>109</v>
       </c>
@@ -13484,7 +13484,7 @@
       </c>
       <c r="I411" s="4"/>
     </row>
-    <row r="412" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
         <v>109</v>
       </c>
@@ -13511,7 +13511,7 @@
       </c>
       <c r="I412" s="4"/>
     </row>
-    <row r="413" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
         <v>109</v>
       </c>
@@ -13538,7 +13538,7 @@
       </c>
       <c r="I413" s="4"/>
     </row>
-    <row r="414" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
         <v>109</v>
       </c>
@@ -13565,7 +13565,7 @@
       </c>
       <c r="I414" s="4"/>
     </row>
-    <row r="415" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
         <v>36</v>
       </c>
@@ -13673,7 +13673,7 @@
       </c>
       <c r="I418" s="4"/>
     </row>
-    <row r="419" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
         <v>8</v>
       </c>
@@ -13700,7 +13700,7 @@
       </c>
       <c r="I419" s="4"/>
     </row>
-    <row r="420" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
         <v>14</v>
       </c>
@@ -13727,7 +13727,7 @@
       </c>
       <c r="I420" s="4"/>
     </row>
-    <row r="421" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
         <v>8</v>
       </c>
@@ -13754,7 +13754,7 @@
       </c>
       <c r="I421" s="4"/>
     </row>
-    <row r="422" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
         <v>8</v>
       </c>
@@ -13781,7 +13781,7 @@
       </c>
       <c r="I422" s="4"/>
     </row>
-    <row r="423" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
         <v>14</v>
       </c>
@@ -13808,7 +13808,7 @@
       </c>
       <c r="I423" s="4"/>
     </row>
-    <row r="424" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>72</v>
       </c>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="I424" s="4"/>
     </row>
-    <row r="425" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
         <v>72</v>
       </c>
@@ -13862,7 +13862,7 @@
       </c>
       <c r="I425" s="4"/>
     </row>
-    <row r="426" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
         <v>133</v>
       </c>
@@ -13889,7 +13889,7 @@
       </c>
       <c r="I426" s="4"/>
     </row>
-    <row r="427" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
         <v>133</v>
       </c>
@@ -13916,7 +13916,7 @@
       </c>
       <c r="I427" s="4"/>
     </row>
-    <row r="428" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
         <v>133</v>
       </c>
@@ -13943,7 +13943,7 @@
       </c>
       <c r="I428" s="4"/>
     </row>
-    <row r="429" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>133</v>
       </c>
@@ -13970,7 +13970,7 @@
       </c>
       <c r="I429" s="4"/>
     </row>
-    <row r="430" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>8</v>
       </c>
@@ -13997,7 +13997,7 @@
       </c>
       <c r="I430" s="4"/>
     </row>
-    <row r="431" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>8</v>
       </c>
@@ -14051,7 +14051,7 @@
       </c>
       <c r="I432" s="4"/>
     </row>
-    <row r="433" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
         <v>8</v>
       </c>
@@ -14105,7 +14105,7 @@
       </c>
       <c r="I434" s="4"/>
     </row>
-    <row r="435" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
         <v>8</v>
       </c>
@@ -14132,7 +14132,7 @@
       </c>
       <c r="I435" s="4"/>
     </row>
-    <row r="436" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
         <v>8</v>
       </c>
@@ -14159,7 +14159,7 @@
       </c>
       <c r="I436" s="4"/>
     </row>
-    <row r="437" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
         <v>8</v>
       </c>
@@ -14184,7 +14184,7 @@
       <c r="H437" s="4"/>
       <c r="I437" s="4"/>
     </row>
-    <row r="438" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
         <v>8</v>
       </c>
@@ -14209,7 +14209,7 @@
       <c r="H438" s="4"/>
       <c r="I438" s="4"/>
     </row>
-    <row r="439" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
         <v>8</v>
       </c>
@@ -14234,7 +14234,7 @@
       <c r="H439" s="4"/>
       <c r="I439" s="4"/>
     </row>
-    <row r="440" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
         <v>14</v>
       </c>
@@ -14261,7 +14261,7 @@
       </c>
       <c r="I440" s="4"/>
     </row>
-    <row r="441" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
         <v>14</v>
       </c>
@@ -14288,7 +14288,7 @@
       </c>
       <c r="I441" s="4"/>
     </row>
-    <row r="442" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
         <v>133</v>
       </c>
@@ -14315,7 +14315,7 @@
       </c>
       <c r="I442" s="4"/>
     </row>
-    <row r="443" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
         <v>133</v>
       </c>
@@ -15281,7 +15281,7 @@
       </c>
       <c r="I478" s="4"/>
     </row>
-    <row r="479" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
         <v>8</v>
       </c>
@@ -15308,7 +15308,7 @@
       </c>
       <c r="I479" s="4"/>
     </row>
-    <row r="480" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
         <v>8</v>
       </c>
@@ -15605,7 +15605,7 @@
       </c>
       <c r="I490" s="4"/>
     </row>
-    <row r="491" spans="1:9" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
         <v>8</v>
       </c>
@@ -15655,7 +15655,7 @@
       <c r="H492" s="4"/>
       <c r="I492" s="4"/>
     </row>
-    <row r="493" spans="1:9" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A493" s="5" t="s">
         <v>8</v>
       </c>
@@ -15705,7 +15705,7 @@
       <c r="H494" s="4"/>
       <c r="I494" s="4"/>
     </row>
-    <row r="495" spans="1:9" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
         <v>8</v>
       </c>
@@ -15805,7 +15805,7 @@
       <c r="H498" s="4"/>
       <c r="I498" s="4"/>
     </row>
-    <row r="499" spans="1:9" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
         <v>8</v>
       </c>
@@ -15830,7 +15830,7 @@
       <c r="H499" s="4"/>
       <c r="I499" s="4"/>
     </row>
-    <row r="500" spans="1:9" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
         <v>8</v>
       </c>
@@ -15907,7 +15907,7 @@
       </c>
       <c r="I502" s="4"/>
     </row>
-    <row r="503" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
         <v>8</v>
       </c>
@@ -15934,7 +15934,7 @@
       </c>
       <c r="I503" s="4"/>
     </row>
-    <row r="504" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
         <v>8</v>
       </c>
@@ -15959,7 +15959,7 @@
       <c r="H504" s="4"/>
       <c r="I504" s="4"/>
     </row>
-    <row r="505" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
         <v>8</v>
       </c>
@@ -15984,7 +15984,7 @@
       <c r="H505" s="4"/>
       <c r="I505" s="4"/>
     </row>
-    <row r="506" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
         <v>8</v>
       </c>
@@ -16009,7 +16009,7 @@
       <c r="H506" s="4"/>
       <c r="I506" s="4"/>
     </row>
-    <row r="507" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
         <v>8</v>
       </c>
@@ -16034,7 +16034,7 @@
       <c r="H507" s="4"/>
       <c r="I507" s="4"/>
     </row>
-    <row r="508" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
         <v>8</v>
       </c>
@@ -16059,7 +16059,7 @@
       <c r="H508" s="4"/>
       <c r="I508" s="4"/>
     </row>
-    <row r="509" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A509" s="5" t="s">
         <v>8</v>
       </c>
@@ -16084,7 +16084,7 @@
       <c r="H509" s="4"/>
       <c r="I509" s="4"/>
     </row>
-    <row r="510" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
         <v>8</v>
       </c>
@@ -16109,7 +16109,7 @@
       <c r="H510" s="4"/>
       <c r="I510" s="4"/>
     </row>
-    <row r="511" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
         <v>8</v>
       </c>
@@ -16134,7 +16134,7 @@
       <c r="H511" s="4"/>
       <c r="I511" s="4"/>
     </row>
-    <row r="512" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
         <v>8</v>
       </c>
@@ -16159,7 +16159,7 @@
       <c r="H512" s="4"/>
       <c r="I512" s="4"/>
     </row>
-    <row r="513" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
         <v>8</v>
       </c>
@@ -16184,7 +16184,7 @@
       <c r="H513" s="4"/>
       <c r="I513" s="4"/>
     </row>
-    <row r="514" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
         <v>8</v>
       </c>
@@ -16209,7 +16209,7 @@
       <c r="H514" s="4"/>
       <c r="I514" s="4"/>
     </row>
-    <row r="515" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A515" s="5" t="s">
         <v>8</v>
       </c>
@@ -16234,7 +16234,7 @@
       <c r="H515" s="4"/>
       <c r="I515" s="4"/>
     </row>
-    <row r="516" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A516" s="5" t="s">
         <v>8</v>
       </c>
@@ -16259,7 +16259,7 @@
       <c r="H516" s="4"/>
       <c r="I516" s="4"/>
     </row>
-    <row r="517" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
         <v>8</v>
       </c>
@@ -16284,7 +16284,7 @@
       <c r="H517" s="4"/>
       <c r="I517" s="4"/>
     </row>
-    <row r="518" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A518" s="5" t="s">
         <v>8</v>
       </c>
@@ -16309,7 +16309,7 @@
       <c r="H518" s="4"/>
       <c r="I518" s="4"/>
     </row>
-    <row r="519" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
         <v>8</v>
       </c>
@@ -16334,7 +16334,7 @@
       <c r="H519" s="4"/>
       <c r="I519" s="4"/>
     </row>
-    <row r="520" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
         <v>8</v>
       </c>
@@ -16359,7 +16359,7 @@
       <c r="H520" s="4"/>
       <c r="I520" s="4"/>
     </row>
-    <row r="521" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
         <v>8</v>
       </c>
@@ -16384,7 +16384,7 @@
       <c r="H521" s="4"/>
       <c r="I521" s="4"/>
     </row>
-    <row r="522" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
         <v>8</v>
       </c>
@@ -16409,7 +16409,7 @@
       <c r="H522" s="4"/>
       <c r="I522" s="4"/>
     </row>
-    <row r="523" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A523" s="5" t="s">
         <v>8</v>
       </c>
@@ -16434,7 +16434,7 @@
       <c r="H523" s="4"/>
       <c r="I523" s="4"/>
     </row>
-    <row r="524" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A524" s="5" t="s">
         <v>8</v>
       </c>
@@ -16459,7 +16459,7 @@
       <c r="H524" s="4"/>
       <c r="I524" s="4"/>
     </row>
-    <row r="525" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A525" s="5" t="s">
         <v>8</v>
       </c>
@@ -16484,7 +16484,7 @@
       <c r="H525" s="4"/>
       <c r="I525" s="4"/>
     </row>
-    <row r="526" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A526" s="5" t="s">
         <v>8</v>
       </c>
@@ -16509,7 +16509,7 @@
       <c r="H526" s="4"/>
       <c r="I526" s="4"/>
     </row>
-    <row r="527" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
         <v>8</v>
       </c>
@@ -16534,7 +16534,7 @@
       <c r="H527" s="4"/>
       <c r="I527" s="4"/>
     </row>
-    <row r="528" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A528" s="5" t="s">
         <v>8</v>
       </c>
@@ -16559,7 +16559,7 @@
       <c r="H528" s="4"/>
       <c r="I528" s="4"/>
     </row>
-    <row r="529" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A529" s="5" t="s">
         <v>8</v>
       </c>
@@ -16584,7 +16584,7 @@
       <c r="H529" s="4"/>
       <c r="I529" s="4"/>
     </row>
-    <row r="530" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A530" s="5" t="s">
         <v>8</v>
       </c>
@@ -16636,7 +16636,7 @@
       </c>
       <c r="I531" s="4"/>
     </row>
-    <row r="532" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A532" s="5" t="s">
         <v>8</v>
       </c>
@@ -16663,7 +16663,7 @@
       </c>
       <c r="I532" s="4"/>
     </row>
-    <row r="533" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
         <v>8</v>
       </c>
@@ -16717,7 +16717,7 @@
       </c>
       <c r="I534" s="4"/>
     </row>
-    <row r="535" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
         <v>72</v>
       </c>
@@ -16744,7 +16744,7 @@
       </c>
       <c r="I535" s="4"/>
     </row>
-    <row r="536" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A536" s="5" t="s">
         <v>8</v>
       </c>
@@ -16771,7 +16771,7 @@
       </c>
       <c r="I536" s="4"/>
     </row>
-    <row r="537" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
         <v>72</v>
       </c>
@@ -16798,7 +16798,7 @@
       </c>
       <c r="I537" s="4"/>
     </row>
-    <row r="538" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
         <v>72</v>
       </c>
@@ -16900,7 +16900,7 @@
       </c>
       <c r="I541" s="4"/>
     </row>
-    <row r="542" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A542" s="5" t="s">
         <v>8</v>
       </c>
@@ -16927,7 +16927,7 @@
       </c>
       <c r="I542" s="4"/>
     </row>
-    <row r="543" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A543" s="5" t="s">
         <v>8</v>
       </c>
@@ -16952,7 +16952,7 @@
       <c r="H543" s="4"/>
       <c r="I543" s="4"/>
     </row>
-    <row r="544" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A544" s="5" t="s">
         <v>72</v>
       </c>
@@ -16979,7 +16979,7 @@
       </c>
       <c r="I544" s="4"/>
     </row>
-    <row r="545" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A545" s="5" t="s">
         <v>72</v>
       </c>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="I545" s="4"/>
     </row>
-    <row r="546" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A546" s="5" t="s">
         <v>72</v>
       </c>
@@ -17033,7 +17033,7 @@
       </c>
       <c r="I546" s="4"/>
     </row>
-    <row r="547" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A547" s="5" t="s">
         <v>604</v>
       </c>
@@ -17060,7 +17060,7 @@
       </c>
       <c r="I547" s="4"/>
     </row>
-    <row r="548" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A548" s="5" t="s">
         <v>72</v>
       </c>
@@ -17087,7 +17087,7 @@
       </c>
       <c r="I548" s="4"/>
     </row>
-    <row r="549" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A549" s="5" t="s">
         <v>72</v>
       </c>
@@ -17114,7 +17114,7 @@
       </c>
       <c r="I549" s="4"/>
     </row>
-    <row r="550" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A550" s="5" t="s">
         <v>109</v>
       </c>
@@ -17141,7 +17141,7 @@
       </c>
       <c r="I550" s="4"/>
     </row>
-    <row r="551" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A551" s="5" t="s">
         <v>72</v>
       </c>
@@ -17168,7 +17168,7 @@
       </c>
       <c r="I551" s="4"/>
     </row>
-    <row r="552" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A552" s="5" t="s">
         <v>72</v>
       </c>
@@ -17195,7 +17195,7 @@
       </c>
       <c r="I552" s="4"/>
     </row>
-    <row r="553" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A553" s="5" t="s">
         <v>72</v>
       </c>
@@ -17222,7 +17222,7 @@
       </c>
       <c r="I553" s="4"/>
     </row>
-    <row r="554" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A554" s="5" t="s">
         <v>8</v>
       </c>
@@ -17249,7 +17249,7 @@
       </c>
       <c r="I554" s="4"/>
     </row>
-    <row r="555" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A555" s="5" t="s">
         <v>14</v>
       </c>
@@ -17276,7 +17276,7 @@
       </c>
       <c r="I555" s="4"/>
     </row>
-    <row r="556" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A556" s="5" t="s">
         <v>133</v>
       </c>
@@ -17303,7 +17303,7 @@
       </c>
       <c r="I556" s="4"/>
     </row>
-    <row r="557" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A557" s="5" t="s">
         <v>133</v>
       </c>
@@ -17330,7 +17330,7 @@
       </c>
       <c r="I557" s="4"/>
     </row>
-    <row r="558" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A558" s="5" t="s">
         <v>72</v>
       </c>
@@ -17357,7 +17357,7 @@
       </c>
       <c r="I558" s="4"/>
     </row>
-    <row r="559" spans="1:9" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A559" s="5" t="s">
         <v>133</v>
       </c>
